--- a/biology/Médecine/Marcel_Sendrail/Marcel_Sendrail.xlsx
+++ b/biology/Médecine/Marcel_Sendrail/Marcel_Sendrail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Sendrail, né le 31 août 1900 à Toulouse et mort le 3 juin 1976 à Clermont-le-Fort, est un médecin et écrivain français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Sendrail est issu d’une lignée de paysans languedociens. Son père devint directeur de l’École vétérinaire de Toulouse. Interne en 1921, docteur en médecine en 1925, agrégé des facultés de médecine en 1930, Marcel Sendrail a enseigné la pathologie générale et la médecine expérimentale à la faculté de Toulouse jusqu’en 1971. Après une thèse de cancérologie expérimentale, il a orienté sa recherche vers l’endocrinologie. Ayant mené diverses recherches expérimentales sur le diabète, il fut appelé de 1942 à 1946 à diriger le Centre régional de l’insuline qui distribuait dans les départements du Sud-Ouest le peu d’insuline alors disponible.
 Parallèlement à ses recherches expérimentales (plus de six cents publications), Marcel Sendrail a réfléchi en humaniste sur la pratique médicale. Dans ses travaux personnels ou dans les thèses qu’il inspirait, il s’est particulièrement intéressé à l’histoire de la médecine et a porté un regard médical sur les œuvres d’écrivains récents (Rilke, Paul Valéry…). Conférencier apprécié du public toulousain, il est très tôt entré dans les académies et sociétés savantes de sa ville, particulièrement l’Académie des Jeux floraux, dont il fut trente-trois ans mainteneur et dix-huit ans secrétaire perpétuel.
@@ -543,7 +557,9 @@
           <t>Sa pensée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contre une conception scientiste et techniciste, Marcel Sendrail a défendu une approche humaniste de la médecine, en laquelle il voit un instrument de culture et une source de sagesse. Contre la standardisation, il a souligné le principe d’individualisation en biologie. Il donne une place centrale à la maladie par où s’exprime l’individualité.
 Son travail d’historien de la médecine se présente :
@@ -578,7 +594,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ambroise Paré, textes choisis, présentés et commentés. Les Belles lettres, collection des Universités de France, Paris, 1953.
 Le Serpent et le miroir, collection l'Épi, Plon, Paris, 1954. Préface de Raymond Escholier
